--- a/production.xlsx
+++ b/production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUF\Desktop\Production CNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CE127A-DF94-4DD0-B318-E6194691A22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4304DC10-1FC1-44B4-9E59-6DB86754B827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -319,7 +319,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1498,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -2320,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
